--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dkk4-Kremen1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dkk4-Kremen1.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2686976666666667</v>
+        <v>0.2063233333333333</v>
       </c>
       <c r="H2">
-        <v>0.8060930000000001</v>
+        <v>0.61897</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.006869333333333</v>
+        <v>6.391557333333332</v>
       </c>
       <c r="N2">
-        <v>12.020608</v>
+        <v>19.174672</v>
       </c>
       <c r="O2">
-        <v>0.07551821629014406</v>
+        <v>0.1156448793857254</v>
       </c>
       <c r="P2">
-        <v>0.07551821629014405</v>
+        <v>0.1156448793857254</v>
       </c>
       <c r="Q2">
-        <v>1.076636440504889</v>
+        <v>1.318727414204444</v>
       </c>
       <c r="R2">
-        <v>9.689727964544</v>
+        <v>11.86854672784</v>
       </c>
       <c r="S2">
-        <v>0.07551821629014406</v>
+        <v>0.1156448793857254</v>
       </c>
       <c r="T2">
-        <v>0.07551821629014405</v>
+        <v>0.1156448793857254</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2686976666666667</v>
+        <v>0.2063233333333333</v>
       </c>
       <c r="H3">
-        <v>0.8060930000000001</v>
+        <v>0.61897</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>43.281512</v>
       </c>
       <c r="O3">
-        <v>0.2719115858848792</v>
+        <v>0.2610362896883882</v>
       </c>
       <c r="P3">
-        <v>0.2719115858848791</v>
+        <v>0.2610362896883882</v>
       </c>
       <c r="Q3">
-        <v>3.876547094735111</v>
+        <v>2.976661942515555</v>
       </c>
       <c r="R3">
-        <v>34.888923852616</v>
+        <v>26.78995748264</v>
       </c>
       <c r="S3">
-        <v>0.2719115858848792</v>
+        <v>0.2610362896883882</v>
       </c>
       <c r="T3">
-        <v>0.2719115858848791</v>
+        <v>0.2610362896883882</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2686976666666667</v>
+        <v>0.2063233333333333</v>
       </c>
       <c r="H4">
-        <v>0.8060930000000001</v>
+        <v>0.61897</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.49407933333333</v>
+        <v>32.348972</v>
       </c>
       <c r="N4">
-        <v>97.482238</v>
+        <v>97.046916</v>
       </c>
       <c r="O4">
-        <v>0.6124219951046819</v>
+        <v>0.5853022620452971</v>
       </c>
       <c r="P4">
-        <v>0.6124219951046818</v>
+        <v>0.5853022620452972</v>
       </c>
       <c r="Q4">
-        <v>8.731083297348222</v>
+        <v>6.674347732946666</v>
       </c>
       <c r="R4">
-        <v>78.579749676134</v>
+        <v>60.06912959652</v>
       </c>
       <c r="S4">
-        <v>0.6124219951046819</v>
+        <v>0.5853022620452971</v>
       </c>
       <c r="T4">
-        <v>0.6124219951046818</v>
+        <v>0.5853022620452972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2686976666666667</v>
+        <v>0.2063233333333333</v>
       </c>
       <c r="H5">
-        <v>0.8060930000000001</v>
+        <v>0.61897</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.130196</v>
+        <v>2.101131333333333</v>
       </c>
       <c r="N5">
-        <v>6.390587999999999</v>
+        <v>6.303394</v>
       </c>
       <c r="O5">
-        <v>0.04014820272029494</v>
+        <v>0.03801656888058921</v>
       </c>
       <c r="P5">
-        <v>0.04014820272029494</v>
+        <v>0.03801656888058921</v>
       </c>
       <c r="Q5">
-        <v>0.5723786947426666</v>
+        <v>0.4335124204644445</v>
       </c>
       <c r="R5">
-        <v>5.151408252684</v>
+        <v>3.90161178418</v>
       </c>
       <c r="S5">
-        <v>0.04014820272029494</v>
+        <v>0.03801656888058921</v>
       </c>
       <c r="T5">
-        <v>0.04014820272029494</v>
+        <v>0.03801656888058921</v>
       </c>
     </row>
   </sheetData>
